--- a/customboard/droneboardh7/bom.xlsx
+++ b/customboard/droneboardh7/bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -134,148 +134,184 @@
     <t xml:space="preserve">Your Instructions / Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">C1, C3, C5, C6, C7, C8, C9, C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 100nF 16V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t care about model/manufacturer, just make sure it fits description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C12, C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 2.2uF 10V X5R 0201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4, C23, C25</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 10nF 16V X7R 0603</t>
+    <t xml:space="preserve">CAP CER 10nF 16V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 10uF 10V X5R 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11, C21, C22, C24, C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 1uF 10V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 330nF 25V X7R 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 100nF 16V X7R 0603</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t care about model/manufacturer, just make sure it fits description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 100nF 16V X7R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3, C5, C6, C7, C9, C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 100nF 16V X7R 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 330nF 25V X7R 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11, C21, C22, C24, C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 1uF 16V X5R 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 2.2uF 16V X7R 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 4.7uF 16V  X7R 1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 10uF 16V  X7R 1206</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
+    <t xml:space="preserve">Foshan NationStar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD0603Y5</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED SMD Yellow 2V 20ma 0603</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">NCD0603R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED SMD Red 2V 20ma 0603</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
+    <t xml:space="preserve">NCD0603G3</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED SMD Green 2V 20ma 0603</t>
   </si>
   <si>
     <t xml:space="preserve">D4</t>
   </si>
   <si>
+    <t xml:space="preserve">NCD0603B5</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED SMD Blue 2V 20ma 0603</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,R2,R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10K OHM 0.1W 1% 0402 SMD</t>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB4110-GF-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Connectors USB Type C, 2.0, Rec, SMT , G/F, RA , Top Mnt, T &amp; R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R9, R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 10K OHM 0.05W 1% 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 1K OHM 0.1W 1% 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 1K OHM 0.1W 0.1% 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0601</t>
   </si>
   <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
-    <t xml:space="preserve">RES 10K OHM 0.1W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4, R5, R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1K OHM 0.1W 1% 0402 SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1K OHM 0.1W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
+    <t xml:space="preserve">RES 10K OHM 0.1W 0.1% 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10, R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 5.1K OHM 0.05W 1% 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
   </si>
   <si>
     <t xml:space="preserve">STMicroelectronics</t>
   </si>
   <si>
-    <t xml:space="preserve">STM32F411CEU6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM Microcontrollers - MCU High-performance access line, Arm Cortex-M4 core DSP &amp; FPU, 512 Kbytes of Flash </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-48</t>
+    <t xml:space="preserve">STM32H723VGT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Microcontrollers High-performance, Arm Cortex-M7 MCU 1 MByte Flash, 564 Kbytes RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-100 </t>
   </si>
   <si>
     <t xml:space="preserve">U3</t>
   </si>
   <si>
-    <t xml:space="preserve">L78M05CDT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Voltage Regulators 5.0V 0.5A Positive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-252-2</t>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM7805MPX/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Voltage Regulators 1.5-A, 30-V, linear voltage regulator 4-SOT-223 0 to 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-223-4</t>
   </si>
   <si>
     <t xml:space="preserve">U4</t>
@@ -293,13 +329,19 @@
     <t xml:space="preserve">LGA-14 3x2.5 P0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">U5,U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDK130M33R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO Voltage Regulators 300mA low Q LDO 1.9 to 5.5V 100mV </t>
+    <t xml:space="preserve">Do not wash with ultrasound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5, U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxLinear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPX3819M5-L-3-3/TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO Voltage Regulators 500mA LOW NOISE LDO 3.3V</t>
   </si>
   <si>
     <t xml:space="preserve">SOT-23-5</t>
@@ -334,7 +376,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,15 +436,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -494,11 +545,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,71 +586,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,9 +730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,11 +746,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1376280" cy="375120"/>
+          <a:ext cx="1375560" cy="374400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -900,8 +944,8 @@
   </sheetPr>
   <dimension ref="A2:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,25 +1019,25 @@
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1004,25 +1048,25 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1033,25 +1077,25 @@
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1060,27 +1104,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1089,27 +1133,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1118,463 +1162,513 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="n">
+        <v>7</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="8" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="n">
+      <c r="D24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="n">
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="8" t="n">
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" s="25" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" s="23" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1612,12 +1706,12 @@
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
-    <hyperlink ref="A32" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
+    <hyperlink ref="A31" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
+    <hyperlink ref="A33" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1638,7 +1732,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B28 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1661,7 +1755,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B28 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/customboard/droneboardh7/bom.xlsx
+++ b/customboard/droneboardh7/bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -134,24 +134,51 @@
     <t xml:space="preserve">Your Instructions / Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 10uF 25V X7R 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t care about model/manufacturer, just make sure it fits description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 100nF 16V X7R 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17, C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 22uF 10V X5R 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1, C3, C5, C6, C7, C8, C9, C16</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t care</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAP CER 100nF 16V X5R 0201</t>
   </si>
   <si>
     <t xml:space="preserve">0201</t>
   </si>
   <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t care about model/manufacturer, just make sure it fits description</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2, C12, C15</t>
   </si>
   <si>
@@ -179,24 +206,6 @@
     <t xml:space="preserve">CAP CER 1uF 10V X5R 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 330nF 25V X7R 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 100nF 16V X7R 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -284,6 +293,21 @@
     <t xml:space="preserve">RES 5.1K OHM 0.05W 1% 0201</t>
   </si>
   <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP63205WU-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching Voltage Regulators DCDC Conv HV Buck TSOT26 T&amp;R 3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOT-23-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -299,21 +323,6 @@
     <t xml:space="preserve">LQFP-100 </t>
   </si>
   <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM7805MPX/NOPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Voltage Regulators 1.5-A, 30-V, linear voltage regulator 4-SOT-223 0 to 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-223-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">U4</t>
   </si>
   <si>
@@ -360,6 +369,21 @@
   </si>
   <si>
     <t xml:space="preserve">3-SMD, Non-Standard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHLP2020CZER4R7M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND 4.7UH 4.5A 60 MOHM SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor SMD 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!</t>
@@ -376,7 +400,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +467,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -467,6 +497,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -545,11 +581,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,63 +622,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,9 +786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -746,7 +802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1375560" cy="374400"/>
+          <a:ext cx="1375200" cy="374040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,7 +1001,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1020,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>11</v>
@@ -1049,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>11</v>
@@ -1061,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>14</v>
@@ -1075,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>11</v>
@@ -1087,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>14</v>
@@ -1104,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>11</v>
@@ -1116,10 +1172,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>14</v>
@@ -1133,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
@@ -1145,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>14</v>
@@ -1162,10 +1218,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
@@ -1174,10 +1230,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
@@ -1191,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>1</v>
@@ -1203,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
@@ -1220,173 +1276,171 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="G15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>32</v>
+      <c r="D16" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="G16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
+      <c r="D17" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9"/>
+      <c r="G17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="G18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="G19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1395,13 +1449,13 @@
       <c r="E20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1412,11 +1466,11 @@
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>11</v>
@@ -1424,13 +1478,13 @@
       <c r="E21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -1441,10 +1495,10 @@
       <c r="A22" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1453,13 +1507,13 @@
       <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -1470,25 +1524,25 @@
       <c r="A23" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -1499,178 +1553,448 @@
       <c r="A24" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>1</v>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="G24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="F25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="G25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="H25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="F26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="H26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="G27" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="H27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="F28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" s="23" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" s="27" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+    </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1706,12 +2030,12 @@
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A35:I35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
-    <hyperlink ref="A33" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
+    <hyperlink ref="A33" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
+    <hyperlink ref="A35" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1732,7 +2056,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C30 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1755,7 +2079,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C30 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/customboard/droneboardh7/bom.xlsx
+++ b/customboard/droneboardh7/bom.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">C14</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP CER 100nF 16V X7R 0603</t>
+    <t xml:space="preserve">CAP CER 100nF 25V X7R 0603</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
@@ -471,6 +471,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -503,6 +504,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -585,7 +587,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,7 +624,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,7 +632,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,14 +640,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -698,7 +692,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,9 +784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,7 +800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1375200" cy="374040"/>
+          <a:ext cx="1374480" cy="373320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,7 +999,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C30"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1302,10 +1300,10 @@
       <c r="A15" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1314,133 +1312,133 @@
       <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="13"/>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="13"/>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="13"/>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="13"/>
+      <c r="H18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="13"/>
+      <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1449,13 +1447,13 @@
       <c r="E20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1466,10 +1464,10 @@
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1478,13 +1476,13 @@
       <c r="E21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -1495,10 +1493,10 @@
       <c r="A22" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1507,13 +1505,13 @@
       <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -1524,10 +1522,10 @@
       <c r="A23" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -1536,13 +1534,13 @@
       <c r="E23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -1553,10 +1551,10 @@
       <c r="A24" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1565,13 +1563,13 @@
       <c r="E24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1582,10 +1580,10 @@
       <c r="A25" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1594,13 +1592,13 @@
       <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="12"/>
@@ -1609,37 +1607,37 @@
       <c r="A26" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="13"/>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1651,13 +1649,13 @@
       <c r="F27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1665,335 +1663,335 @@
       <c r="A28" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="13"/>
+      <c r="H29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="13"/>
+      <c r="H30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" s="27" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="0"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="0"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="0"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="0"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="0"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="0"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="0"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="0"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="0"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="0"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="0"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="0"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="0"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2056,7 +2054,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C30 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2079,7 +2077,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7:C30 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/customboard/droneboardh7/bom.xlsx
+++ b/customboard/droneboardh7/bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">Don’t care</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP CER 10uF 25V X7R 1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
+    <t xml:space="preserve">CAP CER 10uF 25V X7R 1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210</t>
   </si>
   <si>
     <t xml:space="preserve">SMD</t>
@@ -266,7 +266,13 @@
     <t xml:space="preserve">RES 10K OHM 0.05W 1% 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">R3, R4, R5, R6</t>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 5.49K OHM 0.1W 1% 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5, R6, R13</t>
   </si>
   <si>
     <t xml:space="preserve">RES 1K OHM 0.1W 1% 0402</t>
@@ -278,9 +284,6 @@
     <t xml:space="preserve">RES 1K OHM 0.1W 0.1% 0603</t>
   </si>
   <si>
-    <t xml:space="preserve">0601</t>
-  </si>
-  <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
@@ -299,13 +302,13 @@
     <t xml:space="preserve">Diodes Incorporated</t>
   </si>
   <si>
-    <t xml:space="preserve">AP63205WU-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switching Voltage Regulators DCDC Conv HV Buck TSOT26 T&amp;R 3K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSOT-23-6</t>
+    <t xml:space="preserve">AP62300Z6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching Voltage Regulators DCDC Conv HV Buck SOT563(STD) T&amp;R 3K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT 563</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -374,16 +377,16 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vishay Dale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHLP2020CZER4R7M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND 4.7UH 4.5A 60 MOHM SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor SMD 2020</t>
+    <t xml:space="preserve">Coilcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEL4030-332MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Inductors - SMD 3.3uH Shld 20% 6.6A 28.6mOhms AECQ2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor SMD 4x4mm</t>
   </si>
   <si>
     <t xml:space="preserve">Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!</t>
@@ -784,9 +787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
+      <xdr:colOff>663480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -800,7 +803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1374480" cy="373320"/>
+          <a:ext cx="1374120" cy="372960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,10 +1002,10 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.47"/>
@@ -1468,7 +1471,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>11</v>
@@ -1497,7 +1500,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -1509,7 +1512,7 @@
         <v>57</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>14</v>
@@ -1523,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="9" t="n">
         <v>1</v>
@@ -1535,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>14</v>
@@ -1552,22 +1555,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>14</v>
@@ -1581,134 +1584,136 @@
         <v>19</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>67</v>
+      <c r="G25" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>23</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="9"/>
@@ -1718,73 +1723,91 @@
         <v>24</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="E31" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
+      <c r="H31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
@@ -1792,7 +1815,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1824,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,7 +1851,7 @@
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1932,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1941,7 @@
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +1959,7 @@
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1977,7 @@
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1986,7 @@
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +2016,15 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+    </row>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2028,12 +2059,12 @@
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A36:I36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
-    <hyperlink ref="A35" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
+    <hyperlink ref="A34" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
+    <hyperlink ref="A36" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2057,7 +2088,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2080,7 +2111,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/customboard/droneboardh7/bom.xlsx
+++ b/customboard/droneboardh7/bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -137,7 +137,10 @@
     <t xml:space="preserve">C13</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t care</t>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL32B106KAJNNNE</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 10uF 25V X7R 1210</t>
@@ -149,12 +152,12 @@
     <t xml:space="preserve">SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t care about model/manufacturer, just make sure it fits description</t>
-  </si>
-  <si>
     <t xml:space="preserve">C14</t>
   </si>
   <si>
+    <t xml:space="preserve">CL10B104KA8NNNC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP CER 100nF 25V X7R 0603</t>
   </si>
   <si>
@@ -164,16 +167,112 @@
     <t xml:space="preserve">C17, C18</t>
   </si>
   <si>
+    <t xml:space="preserve">CL21A226MPQNNNE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP CER 22uF 10V X5R 0805</t>
   </si>
   <si>
     <t xml:space="preserve">0805</t>
   </si>
   <si>
+    <t xml:space="preserve">J4, J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM08B-SRSS-TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST SH Headers SMT SIDE 8-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST SH 8-pin header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coilcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEL4030-332MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Inductors - SMD 3.3uH Shld 20% 6.6A 28.6mOhms AECQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor SMD 4x4mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603BRD0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 10K OHM 0.1W 0.1% 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT0603BRD071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 1K OHM 0.1W 0.1% 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13, R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0402FR-071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 1K OHM 0.1W 1% 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0402FR-075K49L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES 5.49K OHM 0.1W 1% 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP62300Z6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switching Voltage Regulators DCDC Conv HV Buck SOT563(STD) T&amp;R 3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT 563</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1, C3, C5, C6, C7, C8, C9, C16</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP CER 100nF 16V X5R 0201</t>
+    <t xml:space="preserve">Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM033R61A104KE15D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 100nF 10V X5R 0201</t>
   </si>
   <si>
     <t xml:space="preserve">0201</t>
@@ -182,27 +281,36 @@
     <t xml:space="preserve">C2, C12, C15</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM033R61A225ME47D</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP CER 2.2uF 10V X5R 0201</t>
   </si>
   <si>
     <t xml:space="preserve">C4, C23, C25</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM033R61C103KA12D</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP CER 10nF 16V X5R 0201</t>
   </si>
   <si>
     <t xml:space="preserve">C10</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP CER 10uF 10V X5R 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0402</t>
+    <t xml:space="preserve">CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP CER 10uF 10V X5R 0603</t>
   </si>
   <si>
     <t xml:space="preserve">C11, C21, C22, C24, C26</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM033R61A105ME44D</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP CER 1uF 10V X5R 0201</t>
   </si>
   <si>
@@ -245,6 +353,18 @@
     <t xml:space="preserve">LED SMD Blue 2V 20ma 0603</t>
   </si>
   <si>
+    <t xml:space="preserve">J1, J2, J6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM04B-SRSS-TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST SH Headers SMT SIDE 4-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST SH 4-pin header</t>
+  </si>
+  <si>
     <t xml:space="preserve">J5</t>
   </si>
   <si>
@@ -260,70 +380,67 @@
     <t xml:space="preserve">USB-C</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R9, R12</t>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMN2056U-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSFETs MOSFET N-CHANNEL 20V 4A SOT23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0201FR-0710KL</t>
   </si>
   <si>
     <t xml:space="preserve">RES 10K OHM 0.05W 1% 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 5.49K OHM 0.1W 1% 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4, R5, R6, R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1K OHM 0.1W 1% 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 1K OHM 0.1W 0.1% 0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES 10K OHM 0.1W 0.1% 0603</t>
-  </si>
-  <si>
     <t xml:space="preserve">R10, R11</t>
   </si>
   <si>
+    <t xml:space="preserve">RC0201FR-075K1L</t>
+  </si>
+  <si>
     <t xml:space="preserve">RES 5.1K OHM 0.05W 1% 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes Incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP62300Z6-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switching Voltage Regulators DCDC Conv HV Buck SOT563(STD) T&amp;R 3K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT 563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
+    <t xml:space="preserve">SW1, SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&amp;K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMR221GLFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile Switches SPST Rnd Bttn Gull .05A 32VDC 1W SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile Switch 4.6x2.8mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
   </si>
   <si>
     <t xml:space="preserve">STMicroelectronics</t>
   </si>
   <si>
-    <t xml:space="preserve">STM32H723VGT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM Microcontrollers High-performance, Arm Cortex-M7 MCU 1 MByte Flash, 564 Kbytes RAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQFP-100 </t>
+    <t xml:space="preserve">STM32H743VIT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Microcontrollers - MCU High-performance, Arm Cortex-M7 MCU 2MBytes of Flash 1MB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-100</t>
   </si>
   <si>
     <t xml:space="preserve">U4</t>
@@ -332,10 +449,10 @@
     <t xml:space="preserve">TDK Invensense</t>
   </si>
   <si>
-    <t xml:space="preserve">ICM-42688-P </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMUs - Inertial Measurement Units 6 Axis IMU Motion Tracking </t>
+    <t xml:space="preserve">ICM-42688-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUs - Inertial Measurement Units 6 Axis IMU Motion Tracking</t>
   </si>
   <si>
     <t xml:space="preserve">LGA-14 3x2.5 P0.5</t>
@@ -362,31 +479,13 @@
     <t xml:space="preserve">Y2</t>
   </si>
   <si>
-    <t xml:space="preserve">Murata Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSTNE20M0V53Z000R0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonators 20.0 MHZ 15PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-SMD, Non-Standard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coilcraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEL4030-332MEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Inductors - SMD 3.3uH Shld 20% 6.6A 28.6mOhms AECQ2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor SMD 4x4mm</t>
+    <t xml:space="preserve">CSTNE8M00G520000R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8MHz 10pF SMD3213-3P Ceramic Resonators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-SMD, Non-Standard</t>
   </si>
   <si>
     <t xml:space="preserve">Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!</t>
@@ -403,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,53 +557,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -586,11 +638,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,15 +679,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -643,55 +691,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,9 +807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>663480</xdr:colOff>
+      <xdr:colOff>662760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="203760"/>
-          <a:ext cx="1374120" cy="372960"/>
+          <a:ext cx="1373400" cy="372240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,7 +1022,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1013,7 +1033,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="82.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="27.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="54.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="9"/>
@@ -1079,24 +1099,22 @@
       <c r="C7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
@@ -1108,928 +1126,1007 @@
       <c r="C8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>36</v>
+      <c r="E15" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
+      <c r="E20" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>11</v>
+      <c r="E21" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>11</v>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>11</v>
+      <c r="D24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>19</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>24</v>
+        <v>82</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C27" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>71</v>
+      <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>22</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>23</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C29" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>24</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C31" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="D32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" s="17" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-    </row>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+    </row>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2059,12 +2156,12 @@
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:I41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A34" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
-    <hyperlink ref="A36" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
+    <hyperlink ref="A39" r:id="rId1" display="Need a quick and accurante quote? Need an efficient production? Please read SMT Ordering Necessary Files &amp; Info in 1 minute. Thank you very much!"/>
+    <hyperlink ref="A41" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
